--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H2">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I2">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J2">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N2">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O2">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P2">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q2">
-        <v>3.509682864058751</v>
+        <v>10.7862839059875</v>
       </c>
       <c r="R2">
-        <v>14.038731456235</v>
+        <v>43.14513562395</v>
       </c>
       <c r="S2">
-        <v>0.008645150669089784</v>
+        <v>0.05108909355866968</v>
       </c>
       <c r="T2">
-        <v>0.005272566858871909</v>
+        <v>0.03780044436789083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H3">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I3">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J3">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.063372</v>
       </c>
       <c r="O3">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P3">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q3">
-        <v>0.157330675354</v>
+        <v>0.0694604649</v>
       </c>
       <c r="R3">
-        <v>0.9439840521240001</v>
+        <v>0.4167627894</v>
       </c>
       <c r="S3">
-        <v>0.0003875413950456046</v>
+        <v>0.0003289985893969388</v>
       </c>
       <c r="T3">
-        <v>0.000354534812781969</v>
+        <v>0.0003651354528730861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H4">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I4">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J4">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N4">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O4">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P4">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q4">
-        <v>52.9224448043135</v>
+        <v>1.038253755525</v>
       </c>
       <c r="R4">
-        <v>317.534668825881</v>
+        <v>6.22952253315</v>
       </c>
       <c r="S4">
-        <v>0.1303600715025229</v>
+        <v>0.004917675421487125</v>
       </c>
       <c r="T4">
-        <v>0.1192574112991268</v>
+        <v>0.005457827784000382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H5">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I5">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J5">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N5">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O5">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P5">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q5">
-        <v>52.01937238823001</v>
+        <v>40.4400099190875</v>
       </c>
       <c r="R5">
-        <v>208.07748955292</v>
+        <v>161.76003967635</v>
       </c>
       <c r="S5">
-        <v>0.1281355978379388</v>
+        <v>0.1915435814852716</v>
       </c>
       <c r="T5">
-        <v>0.0781482628194827</v>
+        <v>0.1417216864034945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H6">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I6">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J6">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N6">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O6">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P6">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q6">
-        <v>9.186110919020502</v>
+        <v>3.4177635278</v>
       </c>
       <c r="R6">
-        <v>55.11666551412301</v>
+        <v>20.5065811668</v>
       </c>
       <c r="S6">
-        <v>0.02262748972881947</v>
+        <v>0.01618819253739986</v>
       </c>
       <c r="T6">
-        <v>0.02070032501634802</v>
+        <v>0.01796628679829595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H7">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I7">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J7">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N7">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O7">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P7">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q7">
-        <v>57.84924452553517</v>
+        <v>10.413833784725</v>
       </c>
       <c r="R7">
-        <v>347.095467153211</v>
+        <v>62.48300270835</v>
       </c>
       <c r="S7">
-        <v>0.1424959047262503</v>
+        <v>0.04932498839910168</v>
       </c>
       <c r="T7">
-        <v>0.1303596455763737</v>
+        <v>0.05474279391312579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.043768</v>
       </c>
       <c r="I8">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J8">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N8">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O8">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P8">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q8">
-        <v>2.048860728406666</v>
+        <v>14.26238419936133</v>
       </c>
       <c r="R8">
-        <v>12.29316437044</v>
+        <v>85.574305196168</v>
       </c>
       <c r="S8">
-        <v>0.005046812029213639</v>
+        <v>0.06755359742815466</v>
       </c>
       <c r="T8">
-        <v>0.004616979194474158</v>
+        <v>0.07497361443205297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.043768</v>
       </c>
       <c r="I9">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J9">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.063372</v>
       </c>
       <c r="O9">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P9">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q9">
         <v>0.09184551841066667</v>
@@ -1013,10 +1013,10 @@
         <v>0.8266096656959999</v>
       </c>
       <c r="S9">
-        <v>0.0002262364936365321</v>
+        <v>0.0004350251044683103</v>
       </c>
       <c r="T9">
-        <v>0.0003104521759789235</v>
+        <v>0.0007242117154165954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>13.043768</v>
       </c>
       <c r="I10">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J10">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N10">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O10">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P10">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q10">
-        <v>30.89473408586933</v>
+        <v>1.372852234077333</v>
       </c>
       <c r="R10">
-        <v>278.052606772824</v>
+        <v>12.355670106696</v>
       </c>
       <c r="S10">
-        <v>0.07610078784865767</v>
+        <v>0.006502496767220438</v>
       </c>
       <c r="T10">
-        <v>0.1044290193927899</v>
+        <v>0.01082508639135933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.043768</v>
       </c>
       <c r="I11">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J11">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N11">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O11">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P11">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q11">
-        <v>30.36754411461333</v>
+        <v>53.47262908329733</v>
       </c>
       <c r="R11">
-        <v>182.20526468768</v>
+        <v>320.835774499784</v>
       </c>
       <c r="S11">
-        <v>0.07480219851472836</v>
+        <v>0.2532724128045757</v>
       </c>
       <c r="T11">
-        <v>0.06843135671475332</v>
+        <v>0.2810915916666191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.043768</v>
       </c>
       <c r="I12">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J12">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N12">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O12">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P12">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q12">
-        <v>5.362610423154667</v>
+        <v>4.519207630812444</v>
       </c>
       <c r="R12">
-        <v>48.26349380839201</v>
+        <v>40.672868677312</v>
       </c>
       <c r="S12">
-        <v>0.01320933454203609</v>
+        <v>0.02140516821863621</v>
       </c>
       <c r="T12">
-        <v>0.01812645955518145</v>
+        <v>0.03563443450774129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.043768</v>
       </c>
       <c r="I13">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J13">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N13">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O13">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P13">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q13">
-        <v>33.77087043679378</v>
+        <v>13.76990441940711</v>
       </c>
       <c r="R13">
-        <v>303.937833931144</v>
+        <v>123.929139774664</v>
       </c>
       <c r="S13">
-        <v>0.08318536872438768</v>
+        <v>0.06522097334991508</v>
       </c>
       <c r="T13">
-        <v>0.1141508088062283</v>
+        <v>0.1085771660203643</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H14">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I14">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J14">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N14">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O14">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P14">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q14">
-        <v>0.006583990630000001</v>
+        <v>0.2894001191371667</v>
       </c>
       <c r="R14">
-        <v>0.03950394378</v>
+        <v>1.736400714823</v>
       </c>
       <c r="S14">
-        <v>1.621787301158062E-05</v>
+        <v>0.001370739903692091</v>
       </c>
       <c r="T14">
-        <v>1.483661008962892E-05</v>
+        <v>0.001521300551541146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H15">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I15">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J15">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.063372</v>
       </c>
       <c r="O15">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P15">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q15">
-        <v>0.000295144528</v>
+        <v>0.001863650817333334</v>
       </c>
       <c r="R15">
-        <v>0.002656300752</v>
+        <v>0.016772857356</v>
       </c>
       <c r="S15">
-        <v>7.270083972107506E-07</v>
+        <v>8.82715787914513E-06</v>
       </c>
       <c r="T15">
-        <v>9.976345338503842E-07</v>
+        <v>1.469508560367346E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H16">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I16">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J16">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N16">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O16">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P16">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q16">
-        <v>0.099279876332</v>
+        <v>0.02785674502566667</v>
       </c>
       <c r="R16">
-        <v>0.8935188869880001</v>
+        <v>0.250710705231</v>
       </c>
       <c r="S16">
-        <v>0.0002445490155501337</v>
+        <v>0.0001319431108304391</v>
       </c>
       <c r="T16">
-        <v>0.0003355814651769475</v>
+        <v>0.0002196534077009227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H17">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I17">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J17">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N17">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O17">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P17">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q17">
-        <v>0.09758575736000001</v>
+        <v>1.085020920133167</v>
       </c>
       <c r="R17">
-        <v>0.58551454416</v>
+        <v>6.510125520799</v>
       </c>
       <c r="S17">
-        <v>0.0002403760135064771</v>
+        <v>0.0051391874889392</v>
       </c>
       <c r="T17">
-        <v>0.0002199033858970506</v>
+        <v>0.005703670506956202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H18">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I18">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J18">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N18">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O18">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P18">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q18">
-        <v>0.017232687556</v>
+        <v>0.09169990153688889</v>
       </c>
       <c r="R18">
-        <v>0.155094188004</v>
+        <v>0.8252991138319999</v>
       </c>
       <c r="S18">
-        <v>4.244804619830596E-05</v>
+        <v>0.000434335392037876</v>
       </c>
       <c r="T18">
-        <v>5.824917145988686E-05</v>
+        <v>0.0007230635108250477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H19">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I19">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J19">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N19">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O19">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P19">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q19">
-        <v>0.1085223077586667</v>
+        <v>0.2794071400532222</v>
       </c>
       <c r="R19">
-        <v>0.9767007698280001</v>
+        <v>2.514664260479</v>
       </c>
       <c r="S19">
-        <v>0.0002673152355555108</v>
+        <v>0.001323408288114453</v>
       </c>
       <c r="T19">
-        <v>0.000366822324800768</v>
+        <v>0.002203155120675857</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H20">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I20">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J20">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N20">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O20">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P20">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q20">
-        <v>1.00287602566375</v>
+        <v>8.870089650871749</v>
       </c>
       <c r="R20">
-        <v>4.011504102655</v>
+        <v>35.480358603487</v>
       </c>
       <c r="S20">
-        <v>0.002470312754769726</v>
+        <v>0.04201306436924224</v>
       </c>
       <c r="T20">
-        <v>0.001506612164483973</v>
+        <v>0.03108515715962747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H21">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I21">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J21">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.063372</v>
       </c>
       <c r="O21">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P21">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q21">
-        <v>0.04495652984200001</v>
+        <v>0.057120742994</v>
       </c>
       <c r="R21">
-        <v>0.269739179052</v>
+        <v>0.342724457964</v>
       </c>
       <c r="S21">
-        <v>0.0001107382031646194</v>
+        <v>0.000270551656937313</v>
       </c>
       <c r="T21">
-        <v>0.0001013067213688488</v>
+        <v>0.0003002687700346986</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H22">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I22">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J22">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N22">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O22">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P22">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q22">
-        <v>15.1223495596355</v>
+        <v>0.8538069248065</v>
       </c>
       <c r="R22">
-        <v>90.73409735781301</v>
+        <v>5.122841548838999</v>
       </c>
       <c r="S22">
-        <v>0.03724980161384291</v>
+        <v>0.004044045404577716</v>
       </c>
       <c r="T22">
-        <v>0.03407726660986812</v>
+        <v>0.004488239153081142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H23">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I23">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J23">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N23">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O23">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P23">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q23">
-        <v>14.86430069579</v>
+        <v>33.25580121855775</v>
       </c>
       <c r="R23">
-        <v>59.45720278316001</v>
+        <v>133.023204874231</v>
       </c>
       <c r="S23">
-        <v>0.03661416831182089</v>
+        <v>0.1575156703301952</v>
       </c>
       <c r="T23">
-        <v>0.02233051311601843</v>
+        <v>0.1165446853456098</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H24">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I24">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J24">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N24">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O24">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P24">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q24">
-        <v>2.624889702746501</v>
+        <v>2.810594377201333</v>
       </c>
       <c r="R24">
-        <v>15.749338216479</v>
+        <v>16.863566263208</v>
       </c>
       <c r="S24">
-        <v>0.00646570298483981</v>
+        <v>0.01331234374543045</v>
       </c>
       <c r="T24">
-        <v>0.005915024372981495</v>
+        <v>0.01477455776087036</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H25">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I25">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J25">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N25">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O25">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P25">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q25">
-        <v>16.53016032631717</v>
+        <v>8.563805670691833</v>
       </c>
       <c r="R25">
-        <v>99.18096195790302</v>
+        <v>51.382834024151</v>
       </c>
       <c r="S25">
-        <v>0.04071756114168101</v>
+        <v>0.04056235427711798</v>
       </c>
       <c r="T25">
-        <v>0.03724967990736965</v>
+        <v>0.04501768115699965</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H26">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I26">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J26">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N26">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O26">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P26">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q26">
-        <v>1.377849104293333</v>
+        <v>0.1627552426331667</v>
       </c>
       <c r="R26">
-        <v>8.26709462576</v>
+        <v>0.9765314557990001</v>
       </c>
       <c r="S26">
-        <v>0.003393957108737468</v>
+        <v>0.000770888091813914</v>
       </c>
       <c r="T26">
-        <v>0.003104896569809462</v>
+        <v>0.0008555616394431924</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H27">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I27">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J27">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.063372</v>
       </c>
       <c r="O27">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P27">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q27">
-        <v>0.06176567470933334</v>
+        <v>0.001048095425333333</v>
       </c>
       <c r="R27">
-        <v>0.555891072384</v>
+        <v>0.009432858828000001</v>
       </c>
       <c r="S27">
-        <v>0.0001521429669638769</v>
+        <v>4.964290362647015E-06</v>
       </c>
       <c r="T27">
-        <v>0.0002087776131719448</v>
+        <v>8.264344292848877E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H28">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I28">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J28">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N28">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O28">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P28">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q28">
-        <v>20.77656187041067</v>
+        <v>0.01566630763366667</v>
       </c>
       <c r="R28">
-        <v>186.989056833696</v>
+        <v>0.140996768703</v>
       </c>
       <c r="S28">
-        <v>0.0511774182205311</v>
+        <v>7.420326253150125E-05</v>
       </c>
       <c r="T28">
-        <v>0.07022801932685946</v>
+        <v>0.0001235305077694916</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H29">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I29">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J29">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N29">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O29">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P29">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q29">
-        <v>20.42202911978667</v>
+        <v>0.6102030767811667</v>
       </c>
       <c r="R29">
-        <v>122.53217471872</v>
+        <v>3.661218460687</v>
       </c>
       <c r="S29">
-        <v>0.05030412306396337</v>
+        <v>0.002890218943908562</v>
       </c>
       <c r="T29">
-        <v>0.04601976222577377</v>
+        <v>0.003207677591933909</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H30">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I30">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J30">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N30">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O30">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P30">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q30">
-        <v>3.606330028085334</v>
+        <v>0.05157095224622223</v>
       </c>
       <c r="R30">
-        <v>32.456970252768</v>
+        <v>0.464138570216</v>
       </c>
       <c r="S30">
-        <v>0.008883214712797656</v>
+        <v>0.0002442651451770517</v>
       </c>
       <c r="T30">
-        <v>0.01218995791946227</v>
+        <v>0.0004066424626720425</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H31">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I31">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J31">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N31">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O31">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P31">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q31">
-        <v>22.71074989988622</v>
+        <v>0.1571353080585556</v>
       </c>
       <c r="R31">
-        <v>204.396749098976</v>
+        <v>1.414217772527</v>
       </c>
       <c r="S31">
-        <v>0.05594176519569592</v>
+        <v>0.0007442693447293383</v>
       </c>
       <c r="T31">
-        <v>0.07676587651242396</v>
+        <v>0.001239028675223694</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H32">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I32">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J32">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N32">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O32">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P32">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q32">
-        <v>0.166174608055</v>
+        <v>0.046894818548</v>
       </c>
       <c r="R32">
-        <v>0.9970476483300001</v>
+        <v>0.281368911288</v>
       </c>
       <c r="S32">
-        <v>0.000409326021654009</v>
+        <v>0.0002221166986793001</v>
       </c>
       <c r="T32">
-        <v>0.0003744640606374837</v>
+        <v>0.0002465137662492838</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H33">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I33">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J33">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.063372</v>
       </c>
       <c r="O33">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P33">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q33">
-        <v>0.007449209608000002</v>
+        <v>0.0003019887040000001</v>
       </c>
       <c r="R33">
-        <v>0.067042886472</v>
+        <v>0.002717898336</v>
       </c>
       <c r="S33">
-        <v>1.834910501067804E-05</v>
+        <v>1.430365572312916E-06</v>
       </c>
       <c r="T33">
-        <v>2.517949021514939E-05</v>
+        <v>2.381213162545282E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H34">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I34">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J34">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N34">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O34">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P34">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q34">
-        <v>2.505743927102</v>
+        <v>0.004513947704000001</v>
       </c>
       <c r="R34">
-        <v>22.551695343918</v>
+        <v>0.040625529336</v>
       </c>
       <c r="S34">
-        <v>0.006172219720986991</v>
+        <v>2.138025464363903E-05</v>
       </c>
       <c r="T34">
-        <v>0.008469805256436383</v>
+        <v>3.559295942342881E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H35">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I35">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J35">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N35">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O35">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P35">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q35">
-        <v>2.462985731960001</v>
+        <v>0.175818376724</v>
       </c>
       <c r="R35">
-        <v>14.77791439176</v>
+        <v>1.054910260344</v>
       </c>
       <c r="S35">
-        <v>0.006066896518390432</v>
+        <v>0.0008327614566866451</v>
       </c>
       <c r="T35">
-        <v>0.005550183925673328</v>
+        <v>0.000924231110473443</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H36">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I36">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J36">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N36">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O36">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P36">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q36">
-        <v>0.4349391214660001</v>
+        <v>0.01485918615466667</v>
       </c>
       <c r="R36">
-        <v>3.914452093194001</v>
+        <v>0.133732675392</v>
       </c>
       <c r="S36">
-        <v>0.001071354416508947</v>
+        <v>7.038034213433341E-05</v>
       </c>
       <c r="T36">
-        <v>0.001470162061405484</v>
+        <v>0.0001171662687628305</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H37">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I37">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J37">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N37">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O37">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P37">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q37">
-        <v>2.739015434628667</v>
+        <v>0.04527554160266667</v>
       </c>
       <c r="R37">
-        <v>24.65113891165801</v>
+        <v>0.407479874424</v>
       </c>
       <c r="S37">
-        <v>0.006746820734094364</v>
+        <v>0.0002144470144693741</v>
       </c>
       <c r="T37">
-        <v>0.009258299331691415</v>
+        <v>0.0003570024778331986</v>
       </c>
     </row>
   </sheetData>
